--- a/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>CYCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,64 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -759,49 +773,61 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +839,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +870,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +905,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +940,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,11 +960,11 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -929,8 +975,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +991,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
-      </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1037,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F18" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="G18" s="3">
         <v>-1000</v>
       </c>
       <c r="H18" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1076,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1036,11 +1104,17 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,28 +1122,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-700</v>
-      </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,14 +1162,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1097,8 +1177,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,28 +1192,34 @@
         <v>-1200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G23" s="3">
         <v>-1000</v>
       </c>
       <c r="H23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1247,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1282,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,28 +1297,34 @@
         <v>-1200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G26" s="3">
         <v>-1000</v>
       </c>
       <c r="H26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,28 +1332,34 @@
         <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
       </c>
       <c r="H27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1387,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1422,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1457,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1492,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1384,11 +1524,17 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1396,28 +1542,34 @@
         <v>-1200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F33" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
       </c>
       <c r="H33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1597,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,62 +1612,74 @@
         <v>-1200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F35" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
       </c>
       <c r="H35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1691,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1706,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1772,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1609,11 +1795,11 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1621,16 +1807,22 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -1638,11 +1830,11 @@
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1650,66 +1842,84 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,16 +1947,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -1754,11 +1970,11 @@
       <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1766,8 +1982,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2017,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2052,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2087,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2122,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2157,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2211,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,28 +2226,30 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1995,8 +2257,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,57 +2292,69 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
-        <v>400</v>
-      </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>400</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2082,8 +2362,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2397,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2432,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2467,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2502,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,28 +2537,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
-        <v>400</v>
-      </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>400</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2256,8 +2572,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2591,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2622,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2657,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2692,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2727,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2797,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2832,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2867,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2937,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,28 +2992,34 @@
         <v>-1200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F81" s="3">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
       </c>
       <c r="H81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3031,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,11 +3059,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3097,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3132,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3167,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3202,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3237,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,25 +3291,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -2877,11 +3319,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3357,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3392,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2956,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -2964,11 +3424,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3446,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3477,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3512,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3547,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3582,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3652,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>2400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
       </c>
       <c r="H102" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>CYCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,71 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,19 +752,25 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,29 +783,35 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,29 +824,35 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +985,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,17 +1005,17 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -981,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,43 +1044,51 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,34 +1096,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,11 +1177,17 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,34 +1195,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1162,20 +1241,20 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1183,43 +1262,55 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1500</v>
       </c>
       <c r="F23" s="3">
         <v>-1200</v>
       </c>
       <c r="G23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1500</v>
       </c>
       <c r="F26" s="3">
         <v>-1200</v>
       </c>
       <c r="G26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1500</v>
       </c>
       <c r="F27" s="3">
         <v>-1200</v>
       </c>
       <c r="G27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,46 +1669,58 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1500</v>
       </c>
       <c r="F33" s="3">
         <v>-1200</v>
       </c>
       <c r="G33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1500</v>
       </c>
       <c r="F35" s="3">
         <v>-1200</v>
       </c>
       <c r="G35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1879,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1801,11 +1986,11 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -1813,22 +1998,28 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -1836,11 +2027,11 @@
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -1848,78 +2039,96 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2162,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1965,10 +2180,10 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -1976,11 +2191,11 @@
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -1988,8 +2203,14 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2023,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2367,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,34 +2487,36 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2263,8 +2524,14 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2298,43 +2565,55 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2342,25 +2621,25 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>400</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
@@ -2368,8 +2647,14 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2688,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,8 +2852,14 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2552,25 +2867,25 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>400</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
@@ -2578,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-25500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-22800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-21800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-20700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1500</v>
       </c>
       <c r="F81" s="3">
         <v>-1200</v>
       </c>
       <c r="G81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,11 +3462,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3252,34 +3685,40 @@
         <v>-600</v>
       </c>
       <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3732,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3307,11 +3748,11 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3325,11 +3766,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3430,11 +3889,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3600,31 +4091,37 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,8 +4155,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3667,30 +4170,36 @@
         <v>-600</v>
       </c>
       <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
+        <v>-400</v>
+      </c>
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>CYCA</t>
   </si>
@@ -3739,20 +3739,20 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CYCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>CYCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,79 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,19 +766,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,29 +803,35 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,29 +850,35 @@
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +894,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +937,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +984,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1031,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1011,17 +1057,17 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1032,8 +1078,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1098,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1156,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1211,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,11 +1251,17 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,40 +1269,46 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1247,20 +1327,20 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1268,49 +1348,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1500</v>
       </c>
       <c r="H23" s="3">
         <v>-1200</v>
       </c>
       <c r="I23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1442,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1489,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1500</v>
       </c>
       <c r="H26" s="3">
         <v>-1200</v>
       </c>
       <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1500</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
       </c>
       <c r="I27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1630,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1677,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1724,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1771,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1675,52 +1815,64 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1500</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
       </c>
       <c r="I33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1912,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1500</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
       </c>
       <c r="I35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2034,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2053,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,16 +2143,22 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1992,11 +2178,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2004,28 +2190,34 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2033,11 +2225,11 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
@@ -2045,90 +2237,108 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2378,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2186,10 +2402,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2197,11 +2413,11 @@
       <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>200</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2209,8 +2425,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2472,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2519,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2566,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2613,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2660,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2730,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,40 +2749,42 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2530,31 +2792,37 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2571,81 +2839,93 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>400</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -2653,8 +2933,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2980,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3027,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3074,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3121,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,40 +3168,46 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E66" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>400</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -2899,8 +3215,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3238,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3281,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3328,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3375,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3422,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-25500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-20700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3516,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3563,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3610,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3704,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1500</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
       </c>
       <c r="I81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3826,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,11 +3866,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3916,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3963,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4010,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4057,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4104,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-800</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-600</v>
       </c>
       <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4174,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,11 +4214,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4264,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,16 +4311,22 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3895,11 +4355,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4381,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4424,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4471,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4518,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,16 +4565,22 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4097,31 +4589,37 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4659,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
-        <v>-800</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
       </c>
       <c r="G102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+        <v>-400</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
